--- a/data/calcium.xlsx
+++ b/data/calcium.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
   <si>
     <t>conc</t>
   </si>
@@ -94,13 +94,349 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="174">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="4"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="5"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
       <alignment wrapText="true"/>
     </xf>
@@ -283,305 +619,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s" s="118">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s" s="119">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="n">
+      <c r="A2" t="n" s="120">
         <v>0.45</v>
       </c>
-      <c r="B2" s="35" t="n">
+      <c r="B2" t="n" s="147">
         <v>0.3417</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="n">
+      <c r="A3" t="n" s="121">
         <v>0.45</v>
       </c>
-      <c r="B3" s="36" t="n">
+      <c r="B3" t="n" s="148">
         <v>-0.00438</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="n">
+      <c r="A4" t="n" s="122">
         <v>0.45</v>
       </c>
-      <c r="B4" s="37" t="n">
+      <c r="B4" t="n" s="149">
         <v>0.82531</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="n">
+      <c r="A5" t="n" s="123">
         <v>1.3</v>
       </c>
-      <c r="B5" s="38" t="n">
+      <c r="B5" t="n" s="150">
         <v>1.77967</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="n">
+      <c r="A6" t="n" s="124">
         <v>1.3</v>
       </c>
-      <c r="B6" s="39" t="n">
+      <c r="B6" t="n" s="151">
         <v>0.95384</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="n">
+      <c r="A7" t="n" s="125">
         <v>1.3</v>
       </c>
-      <c r="B7" s="40" t="n">
+      <c r="B7" t="n" s="152">
         <v>0.6408</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="n">
+      <c r="A8" t="n" s="126">
         <v>2.4</v>
       </c>
-      <c r="B8" s="41" t="n">
+      <c r="B8" t="n" s="153">
         <v>1.75136</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="n">
+      <c r="A9" t="n" s="127">
         <v>2.4</v>
       </c>
-      <c r="B9" s="42" t="n">
+      <c r="B9" t="n" s="154">
         <v>1.27497</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="n">
+      <c r="A10" t="n" s="128">
         <v>2.4</v>
       </c>
-      <c r="B10" s="43" t="n">
+      <c r="B10" t="n" s="155">
         <v>1.17332</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="n">
+      <c r="A11" t="n" s="129">
         <v>4.0</v>
       </c>
-      <c r="B11" s="44" t="n">
+      <c r="B11" t="n" s="156">
         <v>3.12273</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="n">
+      <c r="A12" t="n" s="130">
         <v>4.0</v>
       </c>
-      <c r="B12" s="45" t="n">
+      <c r="B12" t="n" s="157">
         <v>2.60958</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="n">
+      <c r="A13" t="n" s="131">
         <v>4.0</v>
       </c>
-      <c r="B13" s="46" t="n">
+      <c r="B13" t="n" s="158">
         <v>2.57429</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="20" t="n">
+      <c r="A14" t="n" s="132">
         <v>6.1</v>
       </c>
-      <c r="B14" s="47" t="n">
+      <c r="B14" t="n" s="159">
         <v>3.17881</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="n">
+      <c r="A15" t="n" s="133">
         <v>6.1</v>
       </c>
-      <c r="B15" s="48" t="n">
+      <c r="B15" t="n" s="160">
         <v>3.00782</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" s="22" t="n">
+      <c r="A16" t="n" s="134">
         <v>6.1</v>
       </c>
-      <c r="B16" s="49" t="n">
+      <c r="B16" t="n" s="161">
         <v>2.67061</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" s="23" t="n">
+      <c r="A17" t="n" s="135">
         <v>8.05</v>
       </c>
-      <c r="B17" s="50" t="n">
+      <c r="B17" t="n" s="162">
         <v>3.05959</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" s="24" t="n">
+      <c r="A18" t="n" s="136">
         <v>8.05</v>
       </c>
-      <c r="B18" s="51" t="n">
+      <c r="B18" t="n" s="163">
         <v>3.94321</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" s="25" t="n">
+      <c r="A19" t="n" s="137">
         <v>8.05</v>
       </c>
-      <c r="B19" s="52" t="n">
+      <c r="B19" t="n" s="164">
         <v>3.43726</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" s="26" t="n">
+      <c r="A20" t="n" s="138">
         <v>11.15</v>
       </c>
-      <c r="B20" s="53" t="n">
+      <c r="B20" t="n" s="165">
         <v>4.80735</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" s="27" t="n">
+      <c r="A21" t="n" s="139">
         <v>11.15</v>
       </c>
-      <c r="B21" s="54" t="n">
+      <c r="B21" t="n" s="166">
         <v>3.35583</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" s="28" t="n">
+      <c r="A22" t="n" s="140">
         <v>11.15</v>
       </c>
-      <c r="B22" s="55" t="n">
+      <c r="B22" t="n" s="167">
         <v>2.78309</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" s="29" t="n">
+      <c r="A23" t="n" s="141">
         <v>13.15</v>
       </c>
-      <c r="B23" s="56" t="n">
+      <c r="B23" t="n" s="168">
         <v>5.13825</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" s="30" t="n">
+      <c r="A24" t="n" s="142">
         <v>13.15</v>
       </c>
-      <c r="B24" s="57" t="n">
+      <c r="B24" t="n" s="169">
         <v>4.70274</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" t="n" s="31">
+      <c r="A25" t="n" s="143">
         <v>13.15</v>
       </c>
-      <c r="B25" t="n" s="58">
+      <c r="B25" t="n" s="170">
         <v>4.25702</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n" s="32">
+      <c r="A26" t="n" s="144">
         <v>15.0</v>
       </c>
-      <c r="B26" t="n" s="59">
+      <c r="B26" t="n" s="171">
         <v>3.60407</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n" s="33">
+      <c r="A27" t="n" s="145">
         <v>15.0</v>
       </c>
-      <c r="B27" t="n" s="60">
+      <c r="B27" t="n" s="172">
         <v>4.15029</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n" s="34">
+      <c r="A28" t="n" s="146">
         <v>15.0</v>
       </c>
-      <c r="B28" t="n" s="61">
+      <c r="B28" t="n" s="173">
         <v>3.42484</v>
       </c>
     </row>
